--- a/report/No7_バッチアプリ機能実装テスト結果.xlsx
+++ b/report/No7_バッチアプリ機能実装テスト結果.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20409"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEF375B-7EA9-42D1-AA05-C5CB4B4A43A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5834707-DE92-4F4C-A702-D82A5F63ADB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前提1" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>前提1.H2-consolenにてT_MEMBERテーブルをrun</t>
     <rPh sb="0" eb="2">
@@ -94,6 +94,150 @@
   </si>
   <si>
     <t>10.料金情報が有効でない日付の入力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認内容</t>
+    <rPh sb="0" eb="4">
+      <t>カクニンナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト内容</t>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-1.入力された日付のログが表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-2.入力された日付に該当する請求ステータス情報の追加件数が表示されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-3.入力された日付に該当する請求データ情報の追加件数が表示されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-4.入力された日付に該当する請求明細情報の追加件数が表示されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認内容</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-1.billing_ymに入力された日付データが追加されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-2.is_commitedにfalseが入力されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-1.入力された日付に該当する請求データのレコードがログに表示された件数と同じ件数追加されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-2.DBに入力された日付に該当する請求データが正しく作成されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-3.DBの請求データ.加入者IDにバッチ稼働対象年月の有効な加入者の加入者IDが登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-4.DBの請求データ.メールアドレスにバッチ稼働対象年月の有効な加入者のメールアドレスが登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-5.DBの請求データ.氏名にバッチ稼働対象年月の有効な加入者の氏名が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-6.DBの請求データ.住所にバッチ稼働対象年月の有効な加入者の住所が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-7.DBの請求データ.加入日にバッチ稼働対象年月の有効な加入者の加入日が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-8.DBの請求データ.解約日にバッチ稼働対象年月の有効な加入者の解約日が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-9.DBの請求データ.決済方法にバッチ稼働対象年月の有効な加入者の決済方法が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-10.DBの請求データ.請求金額にバッチ稼働対象年月の有効な料金情報の月額金額の合計が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-11.DBの請求データ.消費税率に0.1が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-12.DBの請求データ.請求総額に請求金額×(1+消費税率)が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-1.入力された日付に該当する請求詳細データのレコードがログに表示された件数と同じ件数追加されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-2.DBに入力された日付に該当する請求詳細データが正しく作成されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-3.DBの請求明細データ.加入者IDにバッチ稼働対象年月の有効な加入者の加入者IDが登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-4.DBの請求明細データ.料金IDにバッチ稼働対象年月の有効な料金情報の料金IDが登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-5.DBの請求明細データ.料金名にバッチ稼働対象年月の有効な料金情報の料金名が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-6.DBの請求明細データ.月額料金にバッチ稼働対象年月の有効な料金情報の料金名が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-7.DBの請求明細データ.適用開始日にバッチ稼働対象年月の有効な料金情報の適用開始日が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-8.DBの請求明細データ.適用終了日にバッチ稼働対象年月の有効な料金情報の適用終了日が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージが表示され、プログラムが終了されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>請求データ情報を追加する際に０件だった場合、エラーメッセージが表示され、プログラムが終了されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_CHARGEテーブルにデータが存在すること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_MEMBERテーブルにデータが存在すること</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -162,14 +306,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>58785</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>68310</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>114675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -193,7 +337,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="514350"/>
+          <a:off x="809625" y="685800"/>
           <a:ext cx="11717385" cy="2686425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -359,17 +503,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>506523</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123986</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>296465</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152924</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE2D131-9219-48C4-ACD0-50B1485E9B8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C2189FF-34BE-4BF3-A4B7-2C8D32EC5D36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -386,7 +530,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="800100" y="685800"/>
-          <a:ext cx="12165123" cy="1152686"/>
+          <a:ext cx="8526065" cy="3753374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -395,25 +539,111 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>429875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>29395</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABF5EB04-4415-472D-846F-F51E60F8F638}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9620250" y="3857625"/>
+          <a:ext cx="3954125" cy="629470"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -56866"/>
+            <a:gd name="adj2" fmla="val -37856"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>エラーメッセージが表示され、プログラムが終了されること</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>506523</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57278</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>305991</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>162450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
+        <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BD3CF46-580D-4F1F-B31C-C71ADAA87820}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DCA8391-A352-4722-A3CD-910E3EABD0F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -429,8 +659,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="3771900"/>
-          <a:ext cx="12165123" cy="914528"/>
+          <a:off x="800100" y="4972050"/>
+          <a:ext cx="8535591" cy="3762900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>277412</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>162594</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AC7088B-749F-4A8A-96E7-EF3841CFADF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="685800"/>
+          <a:ext cx="8507012" cy="4791744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -441,23 +720,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>77450</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19870</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>534650</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>134170</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABF5EB04-4415-472D-846F-F51E60F8F638}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B69F904-58B1-41E7-BC59-2EFD04C5ED60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -465,7 +744,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7210425" y="3162300"/>
+          <a:off x="8353425" y="5334000"/>
           <a:ext cx="3954125" cy="629470"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -510,7 +789,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>8.</a:t>
+            <a:t>9.</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -518,105 +797,17 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>エラーメッセージが表示され、プログラムが終了されること</a:t>
+            <a:t>請求データ情報を追加する際に０件だった場合、エラーメッセージが表示され、プログラムが終了されること</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>610929</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>47799</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A99097-EE35-4099-95AA-330E613C06AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="800100" y="4972050"/>
-          <a:ext cx="9526329" cy="1247949"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>649035</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152517</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0070A97C-FFCB-4AD7-89E7-3A5EAAF13921}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="800100" y="2057400"/>
-          <a:ext cx="9564435" cy="838317"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -626,17 +817,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>516049</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28723</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>420307</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>162570</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE381523-7431-48E5-8489-EFD9D9483431}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C2CA29-ACCB-41C9-8884-1EA7ABBB1721}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -653,51 +844,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="800100" y="685800"/>
-          <a:ext cx="12174649" cy="1057423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>353623</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57421</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{517E4100-30BC-42CA-BD87-AB5A879DCD3E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="800100" y="2057400"/>
-          <a:ext cx="8583223" cy="1943371"/>
+          <a:ext cx="8649907" cy="4620270"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -708,23 +855,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>325100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19870</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>10775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>86545</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B69F904-58B1-41E7-BC59-2EFD04C5ED60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{382C0D27-42E7-4707-9367-AAD99125378B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -732,7 +879,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7458075" y="4191000"/>
+          <a:off x="7829550" y="5286375"/>
           <a:ext cx="3954125" cy="629470"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -777,185 +924,6 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>9.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>請求データ情報を追加する際に０件だった場合、エラーメッセージが表示され、プログラムが終了されること</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>516049</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38249</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D005EF15-AEB0-466B-B6CC-FFA1C32C5E80}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="800100" y="685800"/>
-          <a:ext cx="12174649" cy="1066949"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>439360</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>66971</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0C03CC2-B4E7-43B1-84C7-FB0E1690F0CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="800100" y="2057400"/>
-          <a:ext cx="8668960" cy="2124371"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>248900</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>105595</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{382C0D27-42E7-4707-9367-AAD99125378B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7381875" y="4448175"/>
-          <a:ext cx="3954125" cy="629470"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -46749"/>
-            <a:gd name="adj2" fmla="val -105949"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
             <a:t>10.</a:t>
           </a:r>
           <a:r>
@@ -981,13 +949,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>582733</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57517</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47992</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1010,7 +978,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="514350"/>
+          <a:off x="800100" y="676275"/>
           <a:ext cx="12241333" cy="2629267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1172,21 +1140,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>506140</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38464</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>439360</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>115011</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A805DC99-7B5C-4972-BA21-DE9B624F7233}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB51420-0F86-42F2-BE3A-54C3C7C7A5D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1202,52 +1170,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="1885950"/>
-          <a:ext cx="9421540" cy="2610214"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>220829</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>168</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2225278F-279E-4DE3-8594-C19B7498101B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="800100" y="514350"/>
-          <a:ext cx="12565229" cy="1200318"/>
+          <a:off x="800100" y="1362075"/>
+          <a:ext cx="8668960" cy="5096586"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1258,16 +1182,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>610850</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>96070</xdr:rowOff>
+      <xdr:colOff>10775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1282,13 +1206,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9801225" y="1695450"/>
+          <a:off x="9201150" y="2114550"/>
           <a:ext cx="3954125" cy="629470"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -47712"/>
-            <a:gd name="adj2" fmla="val 89251"/>
+            <a:gd name="adj1" fmla="val -49398"/>
+            <a:gd name="adj2" fmla="val -90817"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -1335,7 +1259,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ログが表示されること</a:t>
+            <a:t>入力された日付のログが表示されること</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -1349,15 +1273,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>648950</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:colOff>353675</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1373,7 +1297,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9839325" y="2628900"/>
+          <a:off x="9544050" y="4514850"/>
           <a:ext cx="3954125" cy="629470"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -1440,16 +1364,102 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>182225</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>143695</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="吹き出し: 四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36C66A07-5944-4DDB-8BCF-A15A95F7A803}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="6886575"/>
+          <a:ext cx="3954125" cy="629470"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -35668"/>
+            <a:gd name="adj2" fmla="val -145292"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1-4.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入力された日付に該当する請求明細情報の追加件数が表示されていること</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>610850</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>86545</xdr:rowOff>
+      <xdr:colOff>658475</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>105595</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1464,7 +1474,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9801225" y="3400425"/>
+          <a:off x="9848850" y="5305425"/>
           <a:ext cx="3954125" cy="629470"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -1524,92 +1534,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>410825</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19870</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="吹き出し: 四角形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36C66A07-5944-4DDB-8BCF-A15A95F7A803}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6858000" y="4705350"/>
-          <a:ext cx="3954125" cy="629470"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -35668"/>
-            <a:gd name="adj2" fmla="val -145292"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1-4.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>入力された日付に該当する請求明細情報の追加件数が表示されていること</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1619,14 +1543,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>449363</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114844</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>143419</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1649,7 +1573,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="809625" y="676275"/>
+          <a:off x="809625" y="1047750"/>
           <a:ext cx="12098438" cy="3896269"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1662,15 +1586,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>610850</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>29395</xdr:rowOff>
+      <xdr:colOff>629900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>134170</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1685,7 +1609,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5000625" y="4714875"/>
+          <a:off x="5019675" y="5162550"/>
           <a:ext cx="3954125" cy="629470"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -1730,7 +1654,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>2.billing_ym</a:t>
+            <a:t>billing_ym</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -1785,15 +1709,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>259028</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>622</xdr:rowOff>
+      <xdr:colOff>249503</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>29197</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1816,7 +1740,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="809625" y="685800"/>
+          <a:off x="800100" y="2600325"/>
           <a:ext cx="13279703" cy="4458322"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1829,15 +1753,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>610850</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>563225</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1852,7 +1776,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4314825" y="5495925"/>
+          <a:off x="4267200" y="7248525"/>
           <a:ext cx="3954125" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -1921,14 +1845,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>192344</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>39181</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>124906</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1951,7 +1875,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="809625" y="695325"/>
+          <a:off x="809625" y="1981200"/>
           <a:ext cx="13213019" cy="7744906"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1964,15 +1888,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>10775</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>48445</xdr:rowOff>
+      <xdr:colOff>67925</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>115120</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1987,7 +1911,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6457950" y="9020175"/>
+          <a:off x="6515100" y="9772650"/>
           <a:ext cx="3954125" cy="629470"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -2076,17 +2000,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>487470</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76378</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>410781</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>48230</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57CAFF8B-5DBE-4598-A9EB-395E40209AE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2644402A-2943-4A77-8682-88E678A7EC96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2103,51 +2027,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="800100" y="685800"/>
-          <a:ext cx="12146070" cy="1276528"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>639508</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6691637F-837F-41F4-BD98-2295FFFA2CEB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="800100" y="2057400"/>
-          <a:ext cx="9554908" cy="1076475"/>
+          <a:ext cx="8640381" cy="4334480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2159,15 +2039,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>315575</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>153220</xdr:rowOff>
+      <xdr:colOff>344150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>105595</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2182,7 +2062,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7448550" y="3295650"/>
+          <a:off x="7477125" y="5305425"/>
           <a:ext cx="3954125" cy="629470"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -2255,17 +2135,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>363628</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>162067</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>325044</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>162474</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB21BE4-63C6-4AB9-AD3E-BE0D65FBAB9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD289E80-A055-4C22-B22F-B010F859FA78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2282,95 +2162,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="800100" y="685800"/>
-          <a:ext cx="12022228" cy="1019317"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>506523</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>144</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5986CD6B-0B2B-41AC-AF98-D9DFDE25BC31}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="800100" y="3600450"/>
-          <a:ext cx="12165123" cy="1028844"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1339</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114436</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{724EF37B-118F-4216-AD4C-E9A189A09C95}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="809625" y="2057400"/>
-          <a:ext cx="9593014" cy="971686"/>
+          <a:ext cx="8554644" cy="3934374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2381,16 +2173,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>86975</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38920</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>515600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>96070</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2405,13 +2197,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8591550" y="3009900"/>
+          <a:off x="9705975" y="3924300"/>
           <a:ext cx="3954125" cy="629470"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -46749"/>
-            <a:gd name="adj2" fmla="val -105949"/>
+            <a:gd name="adj1" fmla="val -56384"/>
+            <a:gd name="adj2" fmla="val -1540"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -2473,17 +2265,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>649035</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>152565</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>315518</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{853B3FED-EA2C-46B6-89E7-A73BC928A939}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C487AC4A-F9A2-4989-A9B6-B3B69CEC7444}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2492,7 +2284,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2500,7 +2292,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="800100" y="4972050"/>
-          <a:ext cx="9564435" cy="1181265"/>
+          <a:ext cx="8545118" cy="3715268"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2522,17 +2314,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>554154</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133536</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>334570</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>67211</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36633953-0C93-4C50-9FD9-362F097202EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B271E7-90A2-4E2B-9D1D-BE784F7CCEB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2549,51 +2341,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="800100" y="685800"/>
-          <a:ext cx="12212754" cy="1333686"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>649035</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142991</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E77B4C0D-0676-4D03-9B6D-CA86F39BC2B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="800100" y="2228850"/>
-          <a:ext cx="9564435" cy="828791"/>
+          <a:ext cx="8564170" cy="3839111"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2604,16 +2352,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>439400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>162745</xdr:rowOff>
+      <xdr:colOff>620375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>124645</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2628,7 +2376,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8258175" y="3305175"/>
+          <a:off x="8439150" y="4638675"/>
           <a:ext cx="3954125" cy="629470"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -3012,9 +2760,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB39775C-D6F9-4DC7-A07B-C264D74EC0B4}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3027,8 +2777,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3041,10 +2802,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48163639-CED1-4AFC-B724-90C9CE9ED1B4}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3058,8 +2819,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
       <c r="B2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3071,10 +2843,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F062D0-B5A6-407E-875B-669C3C52EB32}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3088,8 +2860,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
       <c r="B2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3101,10 +2884,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C392F0B-6073-41EA-8F7A-56579A24DA2D}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3118,8 +2901,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
       <c r="B2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3131,10 +2925,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8316A2-8FB4-4935-B680-54BECF011BDF}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3148,8 +2942,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
       <c r="B2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3161,10 +2966,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB3950C-4EDA-4DF3-974B-66970F894FAF}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3178,8 +2983,34 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3191,10 +3022,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0B65EE-0F38-4932-9133-1A6D0A2BC724}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3208,8 +3039,24 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3221,127 +3068,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B5377C-D063-4E65-81AC-227B2492763B}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>45428</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F86BEC-E6FD-4702-8D69-8CF0CE8B83F2}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N59" sqref="N59"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>45428</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E62A81-C6FB-4683-9F43-BF2CD15CDCA6}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>45428</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACA2207-851D-414D-BD40-AFE66AA5A485}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>45428</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84BEF48-99BA-454C-B269-6A89DBED2FE1}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -3358,8 +3085,274 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F86BEC-E6FD-4702-8D69-8CF0CE8B83F2}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E62A81-C6FB-4683-9F43-BF2CD15CDCA6}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACA2207-851D-414D-BD40-AFE66AA5A485}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84BEF48-99BA-454C-B269-6A89DBED2FE1}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
       <c r="B2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3370,18 +3363,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3543,18 +3536,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/report/No7_バッチアプリ機能実装テスト結果.xlsx
+++ b/report/No7_バッチアプリ機能実装テスト結果.xlsx
@@ -3,99 +3,37 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20409"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5834707-DE92-4F4C-A702-D82A5F63ADB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB62A20E-8F8C-495D-82BA-8100EF8E907B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前提1" sheetId="7" r:id="rId1"/>
-    <sheet name="前提2" sheetId="8" r:id="rId2"/>
-    <sheet name="ケース1" sheetId="2" r:id="rId3"/>
-    <sheet name="ケース2" sheetId="3" r:id="rId4"/>
-    <sheet name="ケース3" sheetId="4" r:id="rId5"/>
-    <sheet name="ケース4" sheetId="5" r:id="rId6"/>
-    <sheet name="ケース5" sheetId="6" r:id="rId7"/>
-    <sheet name="ケース6" sheetId="9" r:id="rId8"/>
-    <sheet name="ケース7" sheetId="11" r:id="rId9"/>
-    <sheet name="ケース8" sheetId="10" r:id="rId10"/>
-    <sheet name="ケース9" sheetId="12" r:id="rId11"/>
-    <sheet name="ケース10" sheetId="13" r:id="rId12"/>
+    <sheet name="ケース1" sheetId="16" r:id="rId2"/>
+    <sheet name="ケース2" sheetId="18" r:id="rId3"/>
+    <sheet name="ケース3" sheetId="19" r:id="rId4"/>
+    <sheet name="ケース4" sheetId="14" r:id="rId5"/>
+    <sheet name="ケース5" sheetId="20" r:id="rId6"/>
+    <sheet name="ケース6" sheetId="22" r:id="rId7"/>
+    <sheet name="ケース7" sheetId="23" r:id="rId8"/>
+    <sheet name="ケース8" sheetId="21" r:id="rId9"/>
+    <sheet name="ケース9" sheetId="2" r:id="rId10"/>
+    <sheet name="ケース10" sheetId="3" r:id="rId11"/>
+    <sheet name="ケース11" sheetId="4" r:id="rId12"/>
+    <sheet name="ケース12" sheetId="5" r:id="rId13"/>
+    <sheet name="ケース13" sheetId="6" r:id="rId14"/>
+    <sheet name="ケース14" sheetId="9" r:id="rId15"/>
+    <sheet name="ケース15" sheetId="11" r:id="rId16"/>
+    <sheet name="ケース16" sheetId="10" r:id="rId17"/>
+    <sheet name="ケース17" sheetId="12" r:id="rId18"/>
+    <sheet name="ケース18" sheetId="13" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
-  <si>
-    <t>前提1.H2-consolenにてT_MEMBERテーブルをrun</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>前提2.H2-consolenにてT_CHARGEテーブルをrun</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.料金情報、加入者情報どちらにも有効な日付を入力</t>
-    <rPh sb="2" eb="6">
-      <t>リョウキンジョウホウ</t>
-    </rPh>
-    <rPh sb="7" eb="12">
-      <t>カニュウシャジョウホウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.H2-consolenにてT_BILLING_STATUSテーブルをrun</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.H2-consolenにてT_BILLING_DATAテーブルをrun</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4.H2-consolenにてT_BILLING_DETAIL_DATAテーブルをrun</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6.6文字以外の入力</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5.2つ以上の値の入力</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7.数値以外の文字の入力</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8.入力が１月から12月の範囲でなかったとき</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9.加入者情報が有効でない日付の入力</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10.料金情報が有効でない日付の入力</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="139">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="4">
@@ -233,11 +171,623 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>T_CHARGEテーブルにデータが存在すること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_MEMBERテーブルにデータが存在すること</t>
+    <t>5-1.入力された日付のログが表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-2.入力された日付に該当する請求ステータス情報の追加件数が表示されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-3.入力された日付に該当する請求データ情報の追加件数が表示されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-4.入力された日付に該当する請求明細情報の追加件数が表示されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-1.billing_ymに入力された日付データが追加されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-2.is_commitedにfalseが入力されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-1.入力された日付に該当する請求データのレコードがログに表示された件数と同じ件数追加されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-2.DBに入力された日付に該当する請求データが正しく作成されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-3.DBの請求データ.加入者IDにバッチ稼働対象年月の有効な加入者の加入者IDが登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-4.DBの請求データ.メールアドレスにバッチ稼働対象年月の有効な加入者のメールアドレスが登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-5.DBの請求データ.氏名にバッチ稼働対象年月の有効な加入者の氏名が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-6.DBの請求データ.住所にバッチ稼働対象年月の有効な加入者の住所が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-7.DBの請求データ.加入日にバッチ稼働対象年月の有効な加入者の加入日が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-8.DBの請求データ.解約日にバッチ稼働対象年月の有効な加入者の解約日が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-9.DBの請求データ.決済方法にバッチ稼働対象年月の有効な加入者の決済方法が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-10.DBの請求データ.請求金額にバッチ稼働対象年月の有効な料金情報の月額金額の合計が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-11.DBの請求データ.消費税率に0.1が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-12.DBの請求データ.請求総額に請求金額×(1+消費税率)が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8-1.入力された日付に該当する請求詳細データのレコードがログに表示された件数と同じ件数追加されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8-2.DBに入力された日付に該当する請求詳細データが正しく作成されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8-3.DBの請求明細データ.加入者IDにバッチ稼働対象年月の有効な加入者の加入者IDが登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8-4.DBの請求明細データ.料金IDにバッチ稼働対象年月の有効な料金情報の料金IDが登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8-5.DBの請求明細データ.料金名にバッチ稼働対象年月の有効な料金情報の料金名が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8-6.DBの請求明細データ.月額料金にバッチ稼働対象年月の有効な料金情報の料金名が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8-7.DBの請求明細データ.適用開始日にバッチ稼働対象年月の有効な料金情報の適用開始日が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8-8.DBの請求明細データ.適用終了日にバッチ稼働対象年月の有効な料金情報の適用終了日が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前提条件</t>
+    <rPh sb="0" eb="4">
+      <t>ゼンテイジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定した年月の請求データを、加入者情報と料金情報から作成</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>カニュウシャ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①加入者情報について</t>
+    <rPh sb="1" eb="6">
+      <t>カニュウシャジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「バッチ詳細設計書1.4.4 有効な加入者情報とは」参照。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象年月</t>
+    <rPh sb="0" eb="4">
+      <t>タイショウネンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加入日</t>
+    <rPh sb="0" eb="3">
+      <t>カニュウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解約日</t>
+    <rPh sb="0" eb="3">
+      <t>カイヤクビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッチ稼働対象か</t>
+    <rPh sb="3" eb="5">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤木</t>
+    <rPh sb="0" eb="2">
+      <t>アカギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>久保</t>
+    <rPh sb="0" eb="2">
+      <t>クボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日下部</t>
+    <rPh sb="0" eb="3">
+      <t>クサカベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮野</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象外</t>
+    <rPh sb="0" eb="3">
+      <t>タイショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023年12月の加入者情報</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="9" eb="14">
+      <t>カニュウシャジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022年2月の加入者情報</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カニュウシャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024年8月の加入者情報</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カニュウシャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②料金情報について</t>
+    <rPh sb="1" eb="5">
+      <t>リョウキンジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_MEMBERの加入者情報を作成</t>
+    <rPh sb="9" eb="14">
+      <t>カニュウシャジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_CHARGEの料金所情報を作成</t>
+    <rPh sb="9" eb="11">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジョ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>適用開始日</t>
+    <rPh sb="0" eb="5">
+      <t>テキヨウカイシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>適用終了日</t>
+    <rPh sb="0" eb="5">
+      <t>テキヨウシュウリョウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラン0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラン1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラン2</t>
+  </si>
+  <si>
+    <t>プラン3</t>
+  </si>
+  <si>
+    <t>プラン4</t>
+  </si>
+  <si>
+    <t>プラン5</t>
+  </si>
+  <si>
+    <t>2022年2月の料金情報</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象外</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023年12月の料金情報</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024年8月の料金情報</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全加入者情報</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="1" eb="6">
+      <t>カニュウシャジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全料金情報</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="1" eb="5">
+      <t>リョウキンジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.コマンドライン引数に202202を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.H2-consolenで「SELECT＊T_BILLING_DETAIL_DATA」を実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.H2-consolenで「SELECT ＊T_BILLING_DATA」を実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.H2-consolenで「SELECT ＊T_BILLING_STATUS」を実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.コマンドライン引数に202312を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.H2-consolenで「SELECT ＊T_BILLING_STATUS」を実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.H2-consolenで「SELECT ＊T_BILLING_DATA」を実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.H2-consolenで「SELECT＊T_BILLING_DETAIL_DATA」を実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.コマンドライン引数に202408を入力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9-1.入力された日付のログが表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9-2.入力された日付に該当する請求ステータス情報の追加件数が表示されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9-3.入力された日付に該当する請求データ情報の追加件数が表示されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9-4.入力された日付に該当する請求明細情報の追加件数が表示されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.H2-consolenで「SELECT ＊T_BILLING_STATUS」を実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10-1.billing_ymに入力された日付データが追加されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10-2.is_commitedにfalseが入力されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11.H2-consolenで「SELECT ＊T_BILLING_DATA」を実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11-1.入力された日付に該当する請求データのレコードがログに表示された件数と同じ件数追加されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11-2.DBに入力された日付に該当する請求データが正しく作成されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11-3.DBの請求データ.加入者IDにバッチ稼働対象年月の有効な加入者の加入者IDが登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11-4.DBの請求データ.メールアドレスにバッチ稼働対象年月の有効な加入者のメールアドレスが登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11-5.DBの請求データ.氏名にバッチ稼働対象年月の有効な加入者の氏名が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11-6.DBの請求データ.住所にバッチ稼働対象年月の有効な加入者の住所が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11-7.DBの請求データ.加入日にバッチ稼働対象年月の有効な加入者の加入日が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11-8.DBの請求データ.解約日にバッチ稼働対象年月の有効な加入者の解約日が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11-9.DBの請求データ.決済方法にバッチ稼働対象年月の有効な加入者の決済方法が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11-10.DBの請求データ.請求金額にバッチ稼働対象年月の有効な料金情報の月額金額の合計が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11-11.DBの請求データ.消費税率に0.1が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11-12.DBの請求データ.請求総額に請求金額×(1+消費税率)が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12.H2-consolenで「SELECT＊T_BILLING_DETAIL_DATA」を実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12-1.入力された日付に該当する請求詳細データのレコードがログに表示された件数と同じ件数追加されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12-2.DBに入力された日付に該当する請求詳細データが正しく作成されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12-3.DBの請求明細データ.加入者IDにバッチ稼働対象年月の有効な加入者の加入者IDが登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12-4.DBの請求明細データ.料金IDにバッチ稼働対象年月の有効な料金情報の料金IDが登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12-5.DBの請求明細データ.料金名にバッチ稼働対象年月の有効な料金情報の料金名が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12-6.DBの請求明細データ.月額料金にバッチ稼働対象年月の有効な料金情報の料金名が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12-7.DBの請求明細データ.適用開始日にバッチ稼働対象年月の有効な料金情報の適用開始日が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12-8.DBの請求明細データ.適用終了日にバッチ稼働対象年月の有効な料金情報の適用終了日が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13.コマンドライン引数が「yyyy」、「MM」など２つ以上の値の入力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14.コマンドライン引数に「yyyyM」や「yyyyMMdd」など６文字以外の入力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17.コマンドライン引数に「aaaaaa」など数値以外の文字の入力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16.コマンドライン引数の入力が「200013」や「999999」など１月から12月の範囲でなかったとき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17.コマンドライン引数に加入者情報が有効でない日付の入力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18.コマンドライン引数に料金情報が有効でない日付の入力</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -261,15 +811,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -277,13 +839,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="55" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="55" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="55" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -306,22 +890,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>68310</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114675</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676829</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10EF78FF-47B4-4D4A-8E02-6F2D748797DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5713A550-EAE8-4460-BD12-AE16D1B4FDDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -337,8 +921,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="809625" y="685800"/>
-          <a:ext cx="11717385" cy="2686425"/>
+          <a:off x="800100" y="1885950"/>
+          <a:ext cx="3972479" cy="1752845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -351,21 +935,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>487470</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>86359</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>924514</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>143182</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3320FD06-4338-47EB-AE08-84C4A2E9505E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E0E6205-8F5C-41CB-A570-1B4835145A31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -381,8 +965,145 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="3600450"/>
-          <a:ext cx="12146070" cy="4544059"/>
+          <a:off x="800100" y="6172200"/>
+          <a:ext cx="4220164" cy="2200582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>934906</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>162210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52369BD4-C6DF-460E-A6F4-C54E11867F90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5924550" y="1724025"/>
+          <a:ext cx="10431331" cy="2038635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>573077</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>105125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{914A2708-5D82-4B34-86E6-4371C5C5A771}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="6000750"/>
+          <a:ext cx="11298227" cy="2505425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>439360</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>115011</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB51420-0F86-42F2-BE3A-54C3C7C7A5D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="1362075"/>
+          <a:ext cx="8668960" cy="5096586"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -393,23 +1114,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>106025</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>48445</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>10775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+        <xdr:cNvPr id="8" name="吹き出し: 四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC35F430-76CE-483F-8A2C-012142BA4F9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED306FE6-640E-49C1-BA5B-1741CEA8F5A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -417,13 +1138,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6553200" y="5419725"/>
+          <a:off x="9201150" y="2114550"/>
           <a:ext cx="3954125" cy="629470"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -60479"/>
-            <a:gd name="adj2" fmla="val 52934"/>
+            <a:gd name="adj1" fmla="val -49398"/>
+            <a:gd name="adj2" fmla="val -90817"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -462,23 +1183,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>前提</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1. T_MEMBER</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>テーブルにデータが存在すること</a:t>
+            <a:t>入力された日付のログが表示されること</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -490,10 +1195,1067 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>353675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="吹き出し: 四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{600FCE44-C975-499D-982B-8FD5E0416328}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9544050" y="4514850"/>
+          <a:ext cx="3954125" cy="629470"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -65297"/>
+            <a:gd name="adj2" fmla="val 49908"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入力された日付に該当する請求ステータス情報の追加件数が表示されていること</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>182225</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>143695</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="吹き出し: 四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36C66A07-5944-4DDB-8BCF-A15A95F7A803}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="6886575"/>
+          <a:ext cx="3954125" cy="629470"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -35668"/>
+            <a:gd name="adj2" fmla="val -145292"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入力された日付に該当する請求明細情報の追加件数が表示されていること</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>658475</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>105595</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="吹き出し: 四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9067817-F76A-4BB7-83EE-B66DC4301891}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9848850" y="5305425"/>
+          <a:ext cx="3954125" cy="629470"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -71319"/>
+            <a:gd name="adj2" fmla="val -19698"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入力された日付に該当する請求データ情報の追加件数が表示されていること</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>640083</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>29153</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4DE27AD-286E-41DA-A60C-BB70B3DD9D5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="857250"/>
+          <a:ext cx="13670283" cy="4143953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>382250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>10345</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F938627E-043F-43D8-94AE-B9AECA69DE1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4086225" y="5038725"/>
+          <a:ext cx="3954125" cy="629470"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -46749"/>
+            <a:gd name="adj2" fmla="val -105949"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>billing_ym</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>に入力された日付データと</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>is_commited</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>false</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>が入力されたレコードが追加されていること</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>230451</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95957</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1762E83-E353-463E-A651-A0181E9DDC61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="2571750"/>
+          <a:ext cx="13260651" cy="5068007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>382250</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A8400C0-71A4-49A2-BBE4-73189E990B95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4086225" y="7648575"/>
+          <a:ext cx="3954125" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -46749"/>
+            <a:gd name="adj2" fmla="val -105949"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入力された日付に該当する加入者情報、料金情報の合計金額のレコードがログに表示された件数と同じ件数追加されていること</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>611504</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>29847</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EA04790-DE88-4B90-AB07-1365C553DF18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="1885950"/>
+          <a:ext cx="13641704" cy="9116697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>677525</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>153220</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F46AAEE-78D1-4FCF-9EDC-8A951ADB7500}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6438900" y="11010900"/>
+          <a:ext cx="3954125" cy="629470"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -46749"/>
+            <a:gd name="adj2" fmla="val -105949"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入力された日付に該当する加入者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>、料金情報のレコードがログに表示された件数と同じ件数追加されていること</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>410781</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>48230</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2644402A-2943-4A77-8682-88E678A7EC96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="685800"/>
+          <a:ext cx="8640381" cy="4334480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>344150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>105595</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C653B5-900F-4EA7-8286-C821ACA7927B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7477125" y="5305425"/>
+          <a:ext cx="3954125" cy="629470"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -46749"/>
+            <a:gd name="adj2" fmla="val -105949"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>エラーメッセージが表示され、プログラムが終了されること</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>467940</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19582</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83936918-25F8-43DC-BFB1-D076691FF0A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="666750"/>
+          <a:ext cx="8707065" cy="3810532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>353675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>143695</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="吹き出し: 四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97359543-4D54-4EE5-9DD6-DD92B26B3CE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9544050" y="3800475"/>
+          <a:ext cx="3954125" cy="629470"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -56384"/>
+            <a:gd name="adj2" fmla="val -1540"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>エラーメッセージが表示され、プログラムが終了されること</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>334570</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>67211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B271E7-90A2-4E2B-9D1D-BE784F7CCEB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="685800"/>
+          <a:ext cx="8564170" cy="3839111"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>620375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>124645</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F0185EA-8757-467B-8CA2-A0107E78CFBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8439150" y="4638675"/>
+          <a:ext cx="3954125" cy="629470"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -46749"/>
+            <a:gd name="adj2" fmla="val -105949"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>エラーメッセージが表示され、プログラムが終了されること</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -605,14 +2367,6 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>8.</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -672,7 +2426,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -784,14 +2538,6 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>9.</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -807,7 +2553,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -919,14 +2665,6 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>10.</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -948,21 +2686,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>582733</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47992</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>391728</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>10244</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C47E1F-B75C-4F0C-AE67-4704133D6917}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA79881F-9CDE-46E2-B5B7-DFF3E6AE3860}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -978,200 +2716,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="676275"/>
-          <a:ext cx="12241333" cy="2629267"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>535102</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>105484</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3532D9ED-F940-4C5D-B59A-DC60D4E41E5D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="800100" y="3600450"/>
-          <a:ext cx="12193702" cy="5077534"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>210800</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>105595</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C60F8CB4-9F2D-4A30-8D06-2333CE804FF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5972175" y="5305425"/>
-          <a:ext cx="3954125" cy="629470"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -58311"/>
-            <a:gd name="adj2" fmla="val 57474"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>前提</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2. T_CHARGE</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>テーブルにデータが存在すること</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>439360</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>115011</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB51420-0F86-42F2-BE3A-54C3C7C7A5D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="800100" y="1362075"/>
-          <a:ext cx="8668960" cy="5096586"/>
+          <a:off x="800100" y="1200150"/>
+          <a:ext cx="8621328" cy="5153744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1183,22 +2729,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>10775</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>820</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>601325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>134170</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="吹き出し: 四角形 7">
+        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED306FE6-640E-49C1-BA5B-1741CEA8F5A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29B64AA8-241E-408B-9787-4BCB8B374B34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1206,7 +2752,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9201150" y="2114550"/>
+          <a:off x="9105900" y="1733550"/>
           <a:ext cx="3954125" cy="629470"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -1246,14 +2792,6 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1-1.</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -1274,22 +2812,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>353675</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>820</xdr:rowOff>
+      <xdr:colOff>115550</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19870</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="吹き出し: 四角形 8">
+        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{600FCE44-C975-499D-982B-8FD5E0416328}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1073A435-A263-4A69-8B70-E8A3DD71025A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1297,7 +2835,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9544050" y="4514850"/>
+          <a:off x="9305925" y="4362450"/>
           <a:ext cx="3954125" cy="629470"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -1337,14 +2875,6 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1-2.</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -1364,23 +2894,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>182225</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>143695</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>553700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>134170</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="吹き出し: 四角形 10">
+        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36C66A07-5944-4DDB-8BCF-A15A95F7A803}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD2E1DAE-50AF-4666-BCA9-791DC55F68D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1388,93 +2918,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7315200" y="6886575"/>
-          <a:ext cx="3954125" cy="629470"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -35668"/>
-            <a:gd name="adj2" fmla="val -145292"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1-4.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>入力された日付に該当する請求明細情報の追加件数が表示されていること</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>658475</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>105595</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="吹き出し: 四角形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9067817-F76A-4BB7-83EE-B66DC4301891}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9848850" y="5305425"/>
+          <a:off x="9744075" y="5162550"/>
           <a:ext cx="3954125" cy="629470"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -1514,14 +2958,6 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1-3.</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -1534,30 +2970,108 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>363200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>77020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01BA214A-DF3D-4A6D-B024-E797F08004DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752975" y="6819900"/>
+          <a:ext cx="3954125" cy="629470"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5075"/>
+            <a:gd name="adj2" fmla="val -171016"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入力された日付に該当する請求明細情報の追加件数が表示されていること</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>449363</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>325714</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>143419</xdr:rowOff>
+      <xdr:rowOff>76737</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C3BFF8-4E15-4671-BCBC-E41A5837EBA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D38548D-5717-40A9-B990-5D6B4952C3A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1573,8 +3087,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="809625" y="1047750"/>
-          <a:ext cx="12098438" cy="3896269"/>
+          <a:off x="800100" y="1028700"/>
+          <a:ext cx="13355914" cy="3848637"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1598,10 +3112,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F938627E-043F-43D8-94AE-B9AECA69DE1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7898A4F0-83ED-4A0E-B68E-B0966641B94C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1704,27 +3218,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>249503</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>29197</xdr:rowOff>
+      <xdr:colOff>363819</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>124369</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A0B459-EA1C-475F-8325-FE3EEEECB3F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE65F77E-F2D4-4515-AE4C-AD1F0C0DC3B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1740,8 +3254,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="2600325"/>
-          <a:ext cx="13279703" cy="4458322"/>
+          <a:off x="800100" y="2743200"/>
+          <a:ext cx="13394019" cy="3896269"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1753,22 +3267,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>563225</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>125075</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A8400C0-71A4-49A2-BBE4-73189E990B95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FDDF6F7-62BF-47CD-86F3-71548871ECD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1776,7 +3290,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="7248525"/>
+          <a:off x="4514850" y="6696075"/>
           <a:ext cx="3954125" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -1816,14 +3330,6 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>3.</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -1839,27 +3345,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>192344</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>124906</xdr:rowOff>
+      <xdr:colOff>354293</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>86311</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CAC1E8C-BA85-4D15-8C33-5A75DE60EED3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F19AD03F-CF87-4FEB-A18E-F2A427B79E8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1875,8 +3381,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="809625" y="1981200"/>
-          <a:ext cx="13213019" cy="7744906"/>
+          <a:off x="800100" y="1885950"/>
+          <a:ext cx="13384493" cy="4201111"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1887,23 +3393,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>67925</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>115120</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>487025</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>77020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F46AAEE-78D1-4FCF-9EDC-8A951ADB7500}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAAAED5A-F057-4F06-946F-8F01C0FAE588}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1911,7 +3417,521 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6515100" y="9772650"/>
+          <a:off x="5562600" y="6134100"/>
+          <a:ext cx="3954125" cy="629470"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -46749"/>
+            <a:gd name="adj2" fmla="val -105949"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入力された日付に該当する加入者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>、料金情報のレコードがログに表示された件数と同じ件数追加されていること</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>534623</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A7505B8-A9B2-4C98-9914-73B9DB7905FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="1200150"/>
+          <a:ext cx="8764223" cy="5182323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>601325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>134170</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B5B1EB-8880-4FDA-BF7F-DEF337815714}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9105900" y="1733550"/>
+          <a:ext cx="3954125" cy="629470"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -49398"/>
+            <a:gd name="adj2" fmla="val -90817"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入力された日付のログが表示されること</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>115550</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19870</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55AC43D6-29ED-4B07-8BC8-B9986DE1C996}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9305925" y="4362450"/>
+          <a:ext cx="3954125" cy="629470"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -65297"/>
+            <a:gd name="adj2" fmla="val 49908"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入力された日付に該当する請求ステータス情報の追加件数が表示されていること</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>553700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>134170</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B130A298-0FE3-44AC-9331-01EC042D1C31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9744075" y="5162550"/>
+          <a:ext cx="3954125" cy="629470"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -71319"/>
+            <a:gd name="adj2" fmla="val -19698"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入力された日付に該当する請求データ情報の追加件数が表示されていること</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>363200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>77020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B20CB29-1F5A-4ADE-A59B-DA72C9D4BE9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752975" y="6819900"/>
+          <a:ext cx="3954125" cy="629470"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5075"/>
+            <a:gd name="adj2" fmla="val -171016"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入力された日付に該当する請求明細情報の追加件数が表示されていること</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>496996</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{173F1093-CE96-4C70-A383-35AE4D46B125}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="1028700"/>
+          <a:ext cx="12155596" cy="3943900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>658475</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>86545</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90FD9340-9B7D-40D9-BAEE-A0C9F9F0ED5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4362450" y="5114925"/>
           <a:ext cx="3954125" cy="629470"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -1956,7 +3976,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>4.</a:t>
+            <a:t>billing_ym</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -1964,7 +3984,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>入力された日付に該当する加入者</a:t>
+            <a:t>に入力された日付データと</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -1972,7 +3992,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ID</a:t>
+            <a:t>is_commited</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -1980,7 +4000,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>、料金情報のレコードがログに表示された件数と同じ件数追加されていること</a:t>
+            <a:t>に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>false</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>が入力されたレコードが追加されていること</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1990,27 +4026,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>410781</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>48230</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>220924</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2644402A-2943-4A77-8682-88E678A7EC96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028D1F65-B664-422B-B381-C1AE50068F89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2026,8 +4062,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="685800"/>
-          <a:ext cx="8640381" cy="4334480"/>
+          <a:off x="800100" y="2743200"/>
+          <a:ext cx="13251124" cy="4153480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2038,23 +4074,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>344150</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>105595</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>58400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C653B5-900F-4EA7-8286-C821ACA7927B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15DF14C4-FB45-43CC-A59A-841E92BB6C25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,7 +4098,134 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7477125" y="5305425"/>
+          <a:off x="4448175" y="7029450"/>
+          <a:ext cx="3954125" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -46749"/>
+            <a:gd name="adj2" fmla="val -105949"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入力された日付に該当する加入者情報、料金情報の合計金額のレコードがログに表示された件数と同じ件数追加されていること</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>601977</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>153091</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3E5DC5E-A7C5-4799-B1FE-DEC979607109}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="2057400"/>
+          <a:ext cx="13632177" cy="4953691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>296525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>29395</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32747994-4519-4D9D-98F2-763640D9996B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="6943725"/>
           <a:ext cx="3954125" cy="629470"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -2102,12 +4265,20 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入力された日付に該当する加入者</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>5.</a:t>
+            <a:t>ID</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -2115,321 +4286,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>エラーメッセージが表示され、プログラムが終了されること</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>325044</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>162474</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD289E80-A055-4C22-B22F-B010F859FA78}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="800100" y="685800"/>
-          <a:ext cx="8554644" cy="3934374"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>515600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>96070</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="吹き出し: 四角形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97359543-4D54-4EE5-9DD6-DD92B26B3CE6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9705975" y="3924300"/>
-          <a:ext cx="3954125" cy="629470"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -56384"/>
-            <a:gd name="adj2" fmla="val -1540"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>6.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>エラーメッセージが表示され、プログラムが終了されること</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315518</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>114818</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C487AC4A-F9A2-4989-A9B6-B3B69CEC7444}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="800100" y="4972050"/>
-          <a:ext cx="8545118" cy="3715268"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>334570</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>67211</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B271E7-90A2-4E2B-9D1D-BE784F7CCEB6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="800100" y="685800"/>
-          <a:ext cx="8564170" cy="3839111"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>620375</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>124645</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F0185EA-8757-467B-8CA2-A0107E78CFBC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8439150" y="4638675"/>
-          <a:ext cx="3954125" cy="629470"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -46749"/>
-            <a:gd name="adj2" fmla="val -105949"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>7.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>エラーメッセージが表示され、プログラムが終了されること</a:t>
+            <a:t>、料金情報のレコードがログに表示された件数と同じ件数追加されていること</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2760,36 +4617,750 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB39775C-D6F9-4DC7-A07B-C264D74EC0B4}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="10.375" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="15.875" customWidth="1"/>
+    <col min="16" max="16" width="9" customWidth="1"/>
+    <col min="17" max="17" width="10.5" customWidth="1"/>
+    <col min="18" max="18" width="10.75" customWidth="1"/>
+    <col min="19" max="19" width="11.375" customWidth="1"/>
+    <col min="20" max="20" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>45428</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" t="s">
+        <v>74</v>
+      </c>
+      <c r="P24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="3">
+        <v>36647</v>
+      </c>
+      <c r="E26" s="3">
+        <v>36647</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="3">
+        <v>45261</v>
+      </c>
+      <c r="K26" s="3">
+        <v>36647</v>
+      </c>
+      <c r="L26" s="3">
+        <v>36647</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>45505</v>
+      </c>
+      <c r="R26" s="3">
+        <v>36647</v>
+      </c>
+      <c r="S26" s="3">
+        <v>36647</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="3">
+        <v>44593</v>
+      </c>
+      <c r="D27" s="3">
+        <v>45292</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45658</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="5">
+        <v>45261</v>
+      </c>
+      <c r="K27" s="5">
+        <v>45292</v>
+      </c>
+      <c r="L27" s="5">
+        <v>45658</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>45505</v>
+      </c>
+      <c r="R27" s="5">
+        <v>45292</v>
+      </c>
+      <c r="S27" s="5">
+        <v>45658</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="3">
+        <v>44593</v>
+      </c>
+      <c r="D28" s="7">
+        <v>45200</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" s="5">
+        <v>45261</v>
+      </c>
+      <c r="K28" s="5">
+        <v>45200</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>45505</v>
+      </c>
+      <c r="R28" s="5">
+        <v>45200</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="3">
+        <v>44593</v>
+      </c>
+      <c r="D29" s="7">
+        <v>45415</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" s="3">
+        <v>45261</v>
+      </c>
+      <c r="K29" s="7">
+        <v>45415</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>45505</v>
+      </c>
+      <c r="R29" s="5">
+        <v>45415</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="5">
+        <v>44593</v>
+      </c>
+      <c r="D30" s="5">
+        <v>43831</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" s="5">
+        <v>45261</v>
+      </c>
+      <c r="K30" s="5">
+        <v>43831</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>45505</v>
+      </c>
+      <c r="R30" s="5">
+        <v>43831</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="I51" t="s">
+        <v>91</v>
+      </c>
+      <c r="P51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="S52" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T52" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B53" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="3">
+        <v>44593</v>
+      </c>
+      <c r="D53" s="3">
+        <v>45458</v>
+      </c>
+      <c r="E53" s="3">
+        <v>45596</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J53" s="3">
+        <v>44593</v>
+      </c>
+      <c r="K53" s="3">
+        <v>45458</v>
+      </c>
+      <c r="L53" s="3">
+        <v>45596</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>44593</v>
+      </c>
+      <c r="R53" s="5">
+        <v>45458</v>
+      </c>
+      <c r="S53" s="5">
+        <v>45596</v>
+      </c>
+      <c r="T53" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B54" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="5">
+        <v>44593</v>
+      </c>
+      <c r="D54" s="5">
+        <v>36161</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J54" s="5">
+        <v>44593</v>
+      </c>
+      <c r="K54" s="5">
+        <v>36161</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>44593</v>
+      </c>
+      <c r="R54" s="5">
+        <v>36161</v>
+      </c>
+      <c r="S54" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="T54" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B55" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="3">
+        <v>44593</v>
+      </c>
+      <c r="D55" s="3">
+        <v>45324</v>
+      </c>
+      <c r="E55" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J55" s="3">
+        <v>44593</v>
+      </c>
+      <c r="K55" s="3">
+        <v>45324</v>
+      </c>
+      <c r="L55" s="3">
+        <v>45731</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q55" s="5">
+        <v>44593</v>
+      </c>
+      <c r="R55" s="5">
+        <v>45324</v>
+      </c>
+      <c r="S55" s="5">
+        <v>45731</v>
+      </c>
+      <c r="T55" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B56" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="3">
+        <v>44593</v>
+      </c>
+      <c r="D56" s="3">
+        <v>45414</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J56" s="3">
+        <v>44593</v>
+      </c>
+      <c r="K56" s="3">
+        <v>45414</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>44593</v>
+      </c>
+      <c r="R56" s="5">
+        <v>45414</v>
+      </c>
+      <c r="S56" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="T56" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B57" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="5">
+        <v>44593</v>
+      </c>
+      <c r="D57" s="5">
+        <v>43917</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J57" s="5">
+        <v>44593</v>
+      </c>
+      <c r="K57" s="5">
+        <v>43917</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>44593</v>
+      </c>
+      <c r="R57" s="5">
+        <v>43917</v>
+      </c>
+      <c r="S57" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="T57" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B58" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="3">
+        <v>44593</v>
+      </c>
+      <c r="D58" s="3">
+        <v>45308</v>
+      </c>
+      <c r="E58" s="3">
+        <v>45464</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J58" s="3">
+        <v>44593</v>
+      </c>
+      <c r="K58" s="3">
+        <v>45308</v>
+      </c>
+      <c r="L58" s="3">
+        <v>45464</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q58" s="7">
+        <v>44593</v>
+      </c>
+      <c r="R58" s="7">
+        <v>45308</v>
+      </c>
+      <c r="S58" s="7">
+        <v>45464</v>
+      </c>
+      <c r="T58" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B59" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="5">
+        <v>44593</v>
+      </c>
+      <c r="D59" s="5">
+        <v>43892</v>
+      </c>
+      <c r="E59" s="5">
+        <v>44964</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J59" s="7">
+        <v>44593</v>
+      </c>
+      <c r="K59" s="7">
+        <v>43892</v>
+      </c>
+      <c r="L59" s="7">
+        <v>44964</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q59" s="7">
+        <v>44593</v>
+      </c>
+      <c r="R59" s="7">
+        <v>43892</v>
+      </c>
+      <c r="S59" s="7">
+        <v>44964</v>
+      </c>
+      <c r="T59" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2801,170 +5372,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48163639-CED1-4AFC-B724-90C9CE9ED1B4}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>45428</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F062D0-B5A6-407E-875B-669C3C52EB32}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>45428</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C392F0B-6073-41EA-8F7A-56579A24DA2D}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>45428</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8316A2-8FB4-4935-B680-54BECF011BDF}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>45428</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB3950C-4EDA-4DF3-974B-66970F894FAF}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -2984,33 +5391,33 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3020,12 +5427,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0B65EE-0F38-4932-9133-1A6D0A2BC724}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3040,23 +5447,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3066,12 +5473,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B5377C-D063-4E65-81AC-227B2492763B}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3086,73 +5493,73 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3162,8 +5569,529 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F86BEC-E6FD-4702-8D69-8CF0CE8B83F2}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M85" sqref="M85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E62A81-C6FB-4683-9F43-BF2CD15CDCA6}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACA2207-851D-414D-BD40-AFE66AA5A485}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84BEF48-99BA-454C-B269-6A89DBED2FE1}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48163639-CED1-4AFC-B724-90C9CE9ED1B4}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F062D0-B5A6-407E-875B-669C3C52EB32}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C392F0B-6073-41EA-8F7A-56579A24DA2D}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E258A18-C759-4ABE-8FE5-F52FC9E65B40}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3A9C26-03E4-46BD-98AA-93B593FC1C44}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB6ABA0-779F-4EF1-96E8-86A6599CCBD0}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59C3FB2-F978-4E77-9539-C207A7467846}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3182,53 +6110,53 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3238,12 +6166,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E62A81-C6FB-4683-9F43-BF2CD15CDCA6}">
-  <dimension ref="A1:B3"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8518BE1E-7767-414F-A553-4C07F518DA45}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3258,18 +6186,33 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3279,12 +6222,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACA2207-851D-414D-BD40-AFE66AA5A485}">
-  <dimension ref="A1:B3"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BEB606-92B7-42DC-BA8E-9EF702119C5C}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3299,34 +6242,38 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84BEF48-99BA-454C-B269-6A89DBED2FE1}">
-  <dimension ref="A1:B3"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C328DB79-2CBB-4E13-B70A-9C33ED17DF24}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3341,18 +6288,149 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849C3D33-1F39-4B3D-BB6D-824C63359262}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/report/No7_バッチアプリ機能実装テスト結果.xlsx
+++ b/report/No7_バッチアプリ機能実装テスト結果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20409"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB62A20E-8F8C-495D-82BA-8100EF8E907B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107D982E-A29C-4FC9-9784-B5C8EF92AF51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4619,8 +4619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB39775C-D6F9-4DC7-A07B-C264D74EC0B4}">
   <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4647,8 +4647,8 @@
         <v>45428</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>57</v>
       </c>
     </row>

--- a/report/No7_バッチアプリ機能実装テスト結果.xlsx
+++ b/report/No7_バッチアプリ機能実装テスト結果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20409"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107D982E-A29C-4FC9-9784-B5C8EF92AF51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D106D2DA-F621-4BB1-A228-29D883EA4D2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -603,191 +603,191 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.コマンドライン引数に202202を入力</t>
-    <rPh sb="9" eb="11">
+    <t>9-1.入力された日付のログが表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9-2.入力された日付に該当する請求ステータス情報の追加件数が表示されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9-3.入力された日付に該当する請求データ情報の追加件数が表示されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9-4.入力された日付に該当する請求明細情報の追加件数が表示されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10-1.billing_ymに入力された日付データが追加されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10-2.is_commitedにfalseが入力されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11-1.入力された日付に該当する請求データのレコードがログに表示された件数と同じ件数追加されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11-2.DBに入力された日付に該当する請求データが正しく作成されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11-3.DBの請求データ.加入者IDにバッチ稼働対象年月の有効な加入者の加入者IDが登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11-4.DBの請求データ.メールアドレスにバッチ稼働対象年月の有効な加入者のメールアドレスが登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11-5.DBの請求データ.氏名にバッチ稼働対象年月の有効な加入者の氏名が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11-6.DBの請求データ.住所にバッチ稼働対象年月の有効な加入者の住所が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11-7.DBの請求データ.加入日にバッチ稼働対象年月の有効な加入者の加入日が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11-8.DBの請求データ.解約日にバッチ稼働対象年月の有効な加入者の解約日が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11-9.DBの請求データ.決済方法にバッチ稼働対象年月の有効な加入者の決済方法が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11-10.DBの請求データ.請求金額にバッチ稼働対象年月の有効な料金情報の月額金額の合計が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11-11.DBの請求データ.消費税率に0.1が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11-12.DBの請求データ.請求総額に請求金額×(1+消費税率)が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12-1.入力された日付に該当する請求詳細データのレコードがログに表示された件数と同じ件数追加されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12-2.DBに入力された日付に該当する請求詳細データが正しく作成されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12-3.DBの請求明細データ.加入者IDにバッチ稼働対象年月の有効な加入者の加入者IDが登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12-4.DBの請求明細データ.料金IDにバッチ稼働対象年月の有効な料金情報の料金IDが登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12-5.DBの請求明細データ.料金名にバッチ稼働対象年月の有効な料金情報の料金名が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12-6.DBの請求明細データ.月額料金にバッチ稼働対象年月の有効な料金情報の料金名が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12-7.DBの請求明細データ.適用開始日にバッチ稼働対象年月の有効な料金情報の適用開始日が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12-8.DBの請求明細データ.適用終了日にバッチ稼働対象年月の有効な料金情報の適用終了日が登録されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.コマンドライン引数が「yyyyMM」の正しい状態でバッチを起動する※コマンドライン引数に202202を入力</t>
+    <rPh sb="43" eb="45">
       <t>ヒキスウ</t>
     </rPh>
-    <rPh sb="19" eb="21">
+    <rPh sb="53" eb="55">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4.H2-consolenで「SELECT＊T_BILLING_DETAIL_DATA」を実行</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.H2-consolenで「SELECT ＊T_BILLING_DATA」を実行</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.H2-consolenで「SELECT ＊T_BILLING_STATUS」を実行</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5.コマンドライン引数に202312を入力</t>
-    <rPh sb="9" eb="11">
+    <t>2.バッチ実行後に請求データ状況のＤＢを確認※H2-consolenで「SELECT ＊T_BILLING_STATUS」を実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.バッチ実行後に請求データのＤＢを確認※H2-consolenで「SELECT ＊T_BILLING_DATA」を実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.バッチ実行後に請求明細データのＤＢを確認※H2-consolenで「SELECT＊T_BILLING_DETAIL_DATA」を実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.コマンドライン引数が「yyyyMM」の正しい状態でバッチを起動する※コマンドライン引数に202312を入力</t>
+    <rPh sb="43" eb="45">
       <t>ヒキスウ</t>
     </rPh>
-    <rPh sb="19" eb="21">
+    <rPh sb="53" eb="55">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6.H2-consolenで「SELECT ＊T_BILLING_STATUS」を実行</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7.H2-consolenで「SELECT ＊T_BILLING_DATA」を実行</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8.H2-consolenで「SELECT＊T_BILLING_DETAIL_DATA」を実行</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9.コマンドライン引数に202408を入力</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9-1.入力された日付のログが表示されること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9-2.入力された日付に該当する請求ステータス情報の追加件数が表示されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9-3.入力された日付に該当する請求データ情報の追加件数が表示されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9-4.入力された日付に該当する請求明細情報の追加件数が表示されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10.H2-consolenで「SELECT ＊T_BILLING_STATUS」を実行</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10-1.billing_ymに入力された日付データが追加されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10-2.is_commitedにfalseが入力されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11.H2-consolenで「SELECT ＊T_BILLING_DATA」を実行</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11-1.入力された日付に該当する請求データのレコードがログに表示された件数と同じ件数追加されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11-2.DBに入力された日付に該当する請求データが正しく作成されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11-3.DBの請求データ.加入者IDにバッチ稼働対象年月の有効な加入者の加入者IDが登録されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11-4.DBの請求データ.メールアドレスにバッチ稼働対象年月の有効な加入者のメールアドレスが登録されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11-5.DBの請求データ.氏名にバッチ稼働対象年月の有効な加入者の氏名が登録されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11-6.DBの請求データ.住所にバッチ稼働対象年月の有効な加入者の住所が登録されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11-7.DBの請求データ.加入日にバッチ稼働対象年月の有効な加入者の加入日が登録されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11-8.DBの請求データ.解約日にバッチ稼働対象年月の有効な加入者の解約日が登録されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11-9.DBの請求データ.決済方法にバッチ稼働対象年月の有効な加入者の決済方法が登録されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11-10.DBの請求データ.請求金額にバッチ稼働対象年月の有効な料金情報の月額金額の合計が登録されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11-11.DBの請求データ.消費税率に0.1が登録されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11-12.DBの請求データ.請求総額に請求金額×(1+消費税率)が登録されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12.H2-consolenで「SELECT＊T_BILLING_DETAIL_DATA」を実行</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12-1.入力された日付に該当する請求詳細データのレコードがログに表示された件数と同じ件数追加されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12-2.DBに入力された日付に該当する請求詳細データが正しく作成されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12-3.DBの請求明細データ.加入者IDにバッチ稼働対象年月の有効な加入者の加入者IDが登録されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12-4.DBの請求明細データ.料金IDにバッチ稼働対象年月の有効な料金情報の料金IDが登録されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12-5.DBの請求明細データ.料金名にバッチ稼働対象年月の有効な料金情報の料金名が登録されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12-6.DBの請求明細データ.月額料金にバッチ稼働対象年月の有効な料金情報の料金名が登録されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12-7.DBの請求明細データ.適用開始日にバッチ稼働対象年月の有効な料金情報の適用開始日が登録されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12-8.DBの請求明細データ.適用終了日にバッチ稼働対象年月の有効な料金情報の適用終了日が登録されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>13.コマンドライン引数が「yyyy」、「MM」など２つ以上の値の入力</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>14.コマンドライン引数に「yyyyM」や「yyyyMMdd」など６文字以外の入力</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>17.コマンドライン引数に「aaaaaa」など数値以外の文字の入力</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>16.コマンドライン引数の入力が「200013」や「999999」など１月から12月の範囲でなかったとき</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>17.コマンドライン引数に加入者情報が有効でない日付の入力</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>18.コマンドライン引数に料金情報が有効でない日付の入力</t>
+    <t>6.バッチ実行後に請求データ状況のＤＢを確認※H2-consolenで「SELECT ＊T_BILLING_STATUS」を実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.バッチ実行後に請求データのＤＢを確認※H2-consolenで「SELECT ＊T_BILLING_DATA」を実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.バッチ実行後に請求明細データのＤＢを確認※H2-consolenで「SELECT＊T_BILLING_DETAIL_DATA」を実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.コマンドライン引数が「yyyyMM」の正しい状態でバッチを起動する※コマンドライン引数に202408を入力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.バッチ実行後に請求データ状況のＤＢを確認※H2-consolenで「SELECT ＊T_BILLING_STATUS」を実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11.バッチ実行後に請求データのＤＢを確認※H2-consolenで「SELECT ＊T_BILLING_DATA」を実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12.バッチ実行後に請求明細データのＤＢを確認※H2-consolenで「SELECT＊T_BILLING_DETAIL_DATA」を実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13.コマンドライン引数が「yyyy」、「MM」など２つ以上の値で入力した場合でのバッチ実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14.コマンドライン引数に「yyyyM」や「yyyyMMdd」など６文字以外の入力した場合でのバッチ実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15.コマンドライン引数に「aaaaaa」など数値以外の文字の入力した場合でのバッチの実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16.コマンドライン引数の入力が「200013」や「999999」など１月から12月の範囲でなかった場合でのバッチ実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17.コマンドライン引数に加入者情報が有効でない日付の入力した場合でのバッチ実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18.コマンドライン引数に料金情報が有効でない日付の入力した場合でのバッチ実行</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1072,13 +1072,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>439360</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>115011</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1116,13 +1116,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>10775</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1199,13 +1199,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>353675</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1282,13 +1282,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>182225</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>143695</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1360,13 +1360,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>658475</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>105595</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1443,13 +1443,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>640083</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>29153</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1487,13 +1487,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>382250</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>10345</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1610,13 +1610,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>230451</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>95957</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1654,13 +1654,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>382250</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1737,13 +1737,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>611504</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>29847</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1781,13 +1781,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>677525</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>153220</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1880,13 +1880,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>410781</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>48230</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1924,13 +1924,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>344150</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>105595</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2007,13 +2007,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>467940</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>19582</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2051,13 +2051,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>353675</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>143695</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2134,13 +2134,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>334570</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>67211</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2178,13 +2178,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>620375</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>124645</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2261,13 +2261,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>296465</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>152924</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2305,13 +2305,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>429875</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>29395</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2383,13 +2383,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>305991</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>162450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2432,13 +2432,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>277412</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>162594</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2476,13 +2476,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>534650</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>134170</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2559,13 +2559,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>420307</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>162570</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2603,13 +2603,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>10775</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>86545</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2686,13 +2686,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>391728</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>10244</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2730,13 +2730,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>601325</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>134170</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2813,13 +2813,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>115550</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>19870</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2896,13 +2896,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>553700</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>134170</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2974,13 +2974,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>363200</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>77020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3057,13 +3057,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>325714</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>76737</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3101,13 +3101,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>629900</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>134170</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3224,13 +3224,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>363819</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>124369</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3268,13 +3268,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>125075</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3351,13 +3351,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>354293</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>86311</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3395,13 +3395,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>487025</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>77020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3494,13 +3494,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>534623</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>38823</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3538,13 +3538,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>601325</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>134170</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3621,13 +3621,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>115550</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>19870</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3704,13 +3704,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>553700</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>134170</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3782,13 +3782,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>363200</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>77020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3865,13 +3865,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>496996</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3909,13 +3909,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>658475</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>86545</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4032,13 +4032,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>220924</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>38680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4076,13 +4076,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>58400</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4159,13 +4159,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>601977</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>153091</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4203,13 +4203,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>296525</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>29395</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5373,10 +5373,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB3950C-4EDA-4DF3-974B-66970F894FAF}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5394,30 +5394,30 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>107</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -5429,10 +5429,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0B65EE-0F38-4932-9133-1A6D0A2BC724}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5450,20 +5450,20 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>110</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5475,10 +5475,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B5377C-D063-4E65-81AC-227B2492763B}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5496,70 +5496,70 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>123</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -5571,10 +5571,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F86BEC-E6FD-4702-8D69-8CF0CE8B83F2}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M85" sqref="M85"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5592,50 +5592,50 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>132</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -5647,10 +5647,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E62A81-C6FB-4683-9F43-BF2CD15CDCA6}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5671,11 +5671,11 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5688,268 +5688,6 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACA2207-851D-414D-BD40-AFE66AA5A485}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>45428</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84BEF48-99BA-454C-B269-6A89DBED2FE1}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>45428</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48163639-CED1-4AFC-B724-90C9CE9ED1B4}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>45428</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F062D0-B5A6-407E-875B-669C3C52EB32}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>45428</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C392F0B-6073-41EA-8F7A-56579A24DA2D}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>45428</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E258A18-C759-4ABE-8FE5-F52FC9E65B40}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>45428</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3A9C26-03E4-46BD-98AA-93B593FC1C44}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5971,35 +5709,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB6ABA0-779F-4EF1-96E8-86A6599CCBD0}">
-  <dimension ref="A1:B14"/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84BEF48-99BA-454C-B269-6A89DBED2FE1}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6017,70 +5751,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -6090,12 +5769,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59C3FB2-F978-4E77-9539-C207A7467846}">
-  <dimension ref="A1:B10"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48163639-CED1-4AFC-B724-90C9CE9ED1B4}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6113,50 +5792,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -6166,12 +5810,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8518BE1E-7767-414F-A553-4C07F518DA45}">
-  <dimension ref="A1:B6"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F062D0-B5A6-407E-875B-669C3C52EB32}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6189,30 +5833,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -6222,12 +5851,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BEB606-92B7-42DC-BA8E-9EF702119C5C}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C392F0B-6073-41EA-8F7A-56579A24DA2D}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6245,20 +5874,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -6268,12 +5892,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C328DB79-2CBB-4E13-B70A-9C33ED17DF24}">
-  <dimension ref="A1:B14"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E258A18-C759-4ABE-8FE5-F52FC9E65B40}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6291,85 +5915,46 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849C3D33-1F39-4B3D-BB6D-824C63359262}">
-  <dimension ref="A1:B10"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3A9C26-03E4-46BD-98AA-93B593FC1C44}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6387,49 +5972,465 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>51</v>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB6ABA0-779F-4EF1-96E8-86A6599CCBD0}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59C3FB2-F978-4E77-9539-C207A7467846}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8518BE1E-7767-414F-A553-4C07F518DA45}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BEB606-92B7-42DC-BA8E-9EF702119C5C}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C328DB79-2CBB-4E13-B70A-9C33ED17DF24}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849C3D33-1F39-4B3D-BB6D-824C63359262}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6441,21 +6442,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C424317A42AA8449A97AAE94730ED181" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9df5c7ff725c9e365f8a8503f6029c6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dab87824-9c6b-4a08-9c96-9c9ea904f12c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98e3d8fd3bbedc5b58bd9df00d6be37e" ns2:_="">
     <xsd:import namespace="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
@@ -6613,24 +6599,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE06169-F6B9-4EE2-B032-3DCCE6AFCC5C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6646,4 +6630,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/report/No7_バッチアプリ機能実装テスト結果.xlsx
+++ b/report/No7_バッチアプリ機能実装テスト結果.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20409"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D106D2DA-F621-4BB1-A228-29D883EA4D2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BED5FE5-AE1B-45F6-B287-359517A7DBF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前提1" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="145">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="4">
@@ -707,66 +707,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.コマンドライン引数が「yyyyMM」の正しい状態でバッチを起動する※コマンドライン引数に202202を入力</t>
-    <rPh sb="43" eb="45">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.バッチ実行後に請求データ状況のＤＢを確認※H2-consolenで「SELECT ＊T_BILLING_STATUS」を実行</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.バッチ実行後に請求データのＤＢを確認※H2-consolenで「SELECT ＊T_BILLING_DATA」を実行</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4.バッチ実行後に請求明細データのＤＢを確認※H2-consolenで「SELECT＊T_BILLING_DETAIL_DATA」を実行</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5.コマンドライン引数が「yyyyMM」の正しい状態でバッチを起動する※コマンドライン引数に202312を入力</t>
-    <rPh sb="43" eb="45">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6.バッチ実行後に請求データ状況のＤＢを確認※H2-consolenで「SELECT ＊T_BILLING_STATUS」を実行</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7.バッチ実行後に請求データのＤＢを確認※H2-consolenで「SELECT ＊T_BILLING_DATA」を実行</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8.バッチ実行後に請求明細データのＤＢを確認※H2-consolenで「SELECT＊T_BILLING_DETAIL_DATA」を実行</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9.コマンドライン引数が「yyyyMM」の正しい状態でバッチを起動する※コマンドライン引数に202408を入力</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10.バッチ実行後に請求データ状況のＤＢを確認※H2-consolenで「SELECT ＊T_BILLING_STATUS」を実行</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11.バッチ実行後に請求データのＤＢを確認※H2-consolenで「SELECT ＊T_BILLING_DATA」を実行</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12.バッチ実行後に請求明細データのＤＢを確認※H2-consolenで「SELECT＊T_BILLING_DETAIL_DATA」を実行</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>13.コマンドライン引数が「yyyy」、「MM」など２つ以上の値で入力した場合でのバッチ実行</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -788,6 +728,72 @@
   </si>
   <si>
     <t>18.コマンドライン引数に料金情報が有効でない日付の入力した場合でのバッチ実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.バッチ実行後、に請求データ状況のＤＢに正しくコマンドライン引数の日付データが挿入されているか確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※H2-consolenで「SELECT ＊T_BILLING_STATUS」を実行</t>
+  </si>
+  <si>
+    <t>3.バッチ実行後、に請求データのＤＢに正しくコマンドライン引数の日付データが挿入されているか確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※H2-consolenで「SELECT ＊T_BILLING_DATA」を実行</t>
+  </si>
+  <si>
+    <t>4.バッチ実行後、請求明細データのＤＢに正しくコマンドライン引数の日付データが挿入されているか確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※H2-consolenで「SELECT＊T_BILLING_DETAIL_DATA」を実行</t>
+  </si>
+  <si>
+    <t>1.コマンドライン引数が「yyyyMM」の正しい状態でバッチを起動する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※コマンドライン引数に202202を入力</t>
+  </si>
+  <si>
+    <t>5.コマンドライン引数が「yyyyMM」の正しい状態でバッチを起動する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※コマンドライン引数に202312を入力</t>
+  </si>
+  <si>
+    <t>6.バッチ実行後、請求データ状況のＤＢに正しくコマンドライン引数の日付データが挿入されているか確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.バッチ実行後、請求データのＤＢに正しくコマンドライン引数の日付データが挿入されているか確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.バッチ実行後、請求明細データのＤＢに正しくコマンドライン引数の日付データが挿入されているか確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.コマンドライン引数が「yyyyMM」の正しい状態でバッチを起動する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※コマンドライン引数に202408を入力</t>
+  </si>
+  <si>
+    <t>10.バッチ実行後、請求データ状況のＤＢに正しくコマンドライン引数の日付データが挿入されているか確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11.バッチ実行後、請求データのＤＢに正しくコマンドライン引数の日付データが挿入されているか確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12.バッチ実行後、請求明細データのＤＢに正しくコマンドライン引数の日付データが挿入されているか確認</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4619,7 +4625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB39775C-D6F9-4DC7-A07B-C264D74EC0B4}">
   <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -5376,7 +5382,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5394,7 +5400,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -5432,7 +5443,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5450,7 +5461,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -5478,7 +5494,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B3" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5496,7 +5512,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -5574,7 +5595,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5592,6 +5613,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5650,7 +5676,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5668,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -5709,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -5751,7 +5777,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -5792,7 +5818,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -5833,7 +5859,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -5874,7 +5900,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -5896,8 +5922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E258A18-C759-4ABE-8FE5-F52FC9E65B40}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5915,7 +5941,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -5954,7 +5985,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5972,7 +6003,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -5991,7 +6027,8 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6000,7 +6037,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6018,7 +6055,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -6114,7 +6156,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -6172,7 +6219,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6190,7 +6237,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -6228,7 +6280,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6246,7 +6298,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -6274,7 +6331,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6292,7 +6349,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -6370,7 +6432,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6388,7 +6450,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
